--- a/results/141004-W30-1411-123_Four_Seasons_Hat_Tournament_-_Edition_Fall.xlsx
+++ b/results/141004-W30-1411-123_Four_Seasons_Hat_Tournament_-_Edition_Fall.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolja\Desktop\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338EE724-5A46-4057-AAA3-938B31F26A24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2014 berlin Hat - Fall Edition" sheetId="1" r:id="rId1"/>
@@ -18,14 +19,14 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'2014 berlin Hat - Fall Edition'!$P$11:$R$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2014 berlin Hat - Fall Edition'!$P$11:$R$11</definedName>
     <definedName name="Categories" localSheetId="0">'2014 berlin Hat - Fall Edition'!#REF!</definedName>
     <definedName name="Categories">'[1]New Tournament'!$V$3:$V$8</definedName>
     <definedName name="Divisions" localSheetId="0">'2014 berlin Hat - Fall Edition'!#REF!</definedName>
     <definedName name="Divisions">'[1]New Tournament'!$V$10:$V$13</definedName>
     <definedName name="Pools" localSheetId="0">'2014 berlin Hat - Fall Edition'!#REF!</definedName>
     <definedName name="Pools">'[1]New Tournament'!$V$21:$V$24</definedName>
-    <definedName name="Print_Area" localSheetId="0">'2014 berlin Hat - Fall Edition'!$A$1:$M$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'2014 berlin Hat - Fall Edition'!$A$1:$M$76</definedName>
     <definedName name="Rounds" localSheetId="0">'2014 berlin Hat - Fall Edition'!#REF!</definedName>
     <definedName name="Rounds">'[1]New Tournament'!$V$15:$V$19</definedName>
   </definedNames>
@@ -39,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Kolja Hannemann</author>
   </authors>
   <commentList>
-    <comment ref="P11" authorId="0" shapeId="0">
+    <comment ref="P11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -293,7 +294,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -943,6 +944,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -978,6 +988,27 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,18 +1022,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,27 +1031,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1422,14 +1423,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P50" sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
@@ -1531,10 +1532,10 @@
         <v>27</v>
       </c>
       <c r="C11" s="21"/>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="22"/>
       <c r="H11" s="21"/>
@@ -1592,10 +1593,10 @@
       <c r="R12" s="24"/>
     </row>
     <row r="13" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="48">
+      <c r="B13" s="51">
         <v>1</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="11" t="s">
@@ -1607,19 +1608,19 @@
       <c r="F13" s="9">
         <v>5</v>
       </c>
-      <c r="G13" s="54">
+      <c r="G13" s="57">
         <v>7.5</v>
       </c>
-      <c r="I13" s="66">
+      <c r="I13" s="60">
         <v>125</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="63">
         <v>1</v>
       </c>
-      <c r="K13" s="69">
+      <c r="K13" s="45">
         <v>31</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="48">
         <v>157</v>
       </c>
       <c r="P13" s="28" t="s">
@@ -1631,8 +1632,8 @@
       <c r="R13" s="27"/>
     </row>
     <row r="14" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="8" t="s">
         <v>13</v>
       </c>
@@ -1642,11 +1643,11 @@
       <c r="F14" s="6">
         <v>2.5</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="46"/>
+      <c r="G14" s="58"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="49"/>
       <c r="P14" s="25" t="s">
         <v>36</v>
       </c>
@@ -1656,8 +1657,8 @@
       <c r="R14" s="24"/>
     </row>
     <row r="15" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="56"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4" t="s">
         <v>0</v>
@@ -1665,11 +1666,11 @@
       <c r="F15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="47"/>
+      <c r="G15" s="59"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="50"/>
       <c r="P15" s="28" t="s">
         <v>10</v>
       </c>
@@ -1679,10 +1680,10 @@
       <c r="R15" s="27"/>
     </row>
     <row r="16" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="48">
+      <c r="B16" s="51">
         <v>2</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1694,19 +1695,19 @@
       <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="57">
         <v>8.5</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="60">
         <v>100</v>
       </c>
-      <c r="J16" s="60">
+      <c r="J16" s="63">
         <v>1</v>
       </c>
-      <c r="K16" s="69">
+      <c r="K16" s="45">
         <v>22.5</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="48">
         <v>123.5</v>
       </c>
       <c r="P16" s="25" t="s">
@@ -1718,8 +1719,8 @@
       <c r="R16" s="24"/>
     </row>
     <row r="17" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="49"/>
-      <c r="C17" s="52"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="8" t="s">
         <v>10</v>
       </c>
@@ -1729,11 +1730,11 @@
       <c r="F17" s="6">
         <v>7.5</v>
       </c>
-      <c r="G17" s="55"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="46"/>
+      <c r="G17" s="58"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="49"/>
       <c r="P17" s="28" t="s">
         <v>1</v>
       </c>
@@ -1743,8 +1744,8 @@
       <c r="R17" s="27"/>
     </row>
     <row r="18" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
-      <c r="C18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="56"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4" t="s">
         <v>0</v>
@@ -1752,11 +1753,11 @@
       <c r="F18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="56"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="47"/>
+      <c r="G18" s="59"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="50"/>
       <c r="P18" s="25" t="s">
         <v>34</v>
       </c>
@@ -1766,10 +1767,10 @@
       <c r="R18" s="24"/>
     </row>
     <row r="19" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="48">
+      <c r="B19" s="51">
         <v>3</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -1781,19 +1782,19 @@
       <c r="F19" s="9">
         <v>2.5</v>
       </c>
-      <c r="G19" s="54">
+      <c r="G19" s="57">
         <v>5</v>
       </c>
-      <c r="I19" s="66">
+      <c r="I19" s="60">
         <v>80</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="63">
         <v>4</v>
       </c>
-      <c r="K19" s="69">
+      <c r="K19" s="45">
         <v>17.5</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="48">
         <v>101.5</v>
       </c>
       <c r="P19" s="28" t="s">
@@ -1805,8 +1806,8 @@
       <c r="R19" s="27"/>
     </row>
     <row r="20" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="49"/>
-      <c r="C20" s="52"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="8" t="s">
         <v>38</v>
       </c>
@@ -1816,11 +1817,11 @@
       <c r="F20" s="6">
         <v>2.5</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="I20" s="67"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="46"/>
+      <c r="G20" s="58"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="49"/>
       <c r="P20" s="25" t="s">
         <v>38</v>
       </c>
@@ -1830,8 +1831,8 @@
       <c r="R20" s="24"/>
     </row>
     <row r="21" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="50"/>
-      <c r="C21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4" t="s">
         <v>0</v>
@@ -1839,11 +1840,11 @@
       <c r="F21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G21" s="56"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="47"/>
+      <c r="G21" s="59"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="50"/>
       <c r="P21" s="28" t="s">
         <v>14</v>
       </c>
@@ -1853,10 +1854,10 @@
       <c r="R21" s="27"/>
     </row>
     <row r="22" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="48">
+      <c r="B22" s="51">
         <v>4</v>
       </c>
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -1868,19 +1869,19 @@
       <c r="F22" s="9">
         <v>0.5</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="57">
         <v>5.5</v>
       </c>
-      <c r="I22" s="66">
+      <c r="I22" s="60">
         <v>70</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="63">
         <v>4</v>
       </c>
-      <c r="K22" s="69">
+      <c r="K22" s="45">
         <v>12</v>
       </c>
-      <c r="L22" s="45">
+      <c r="L22" s="48">
         <v>86</v>
       </c>
       <c r="P22" s="25" t="s">
@@ -1892,8 +1893,8 @@
       <c r="R22" s="24"/>
     </row>
     <row r="23" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="49"/>
-      <c r="C23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="8" t="s">
         <v>40</v>
       </c>
@@ -1903,11 +1904,11 @@
       <c r="F23" s="6">
         <v>5</v>
       </c>
-      <c r="G23" s="55"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="46"/>
+      <c r="G23" s="58"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="49"/>
       <c r="P23" s="28" t="s">
         <v>40</v>
       </c>
@@ -1917,8 +1918,8 @@
       <c r="R23" s="27"/>
     </row>
     <row r="24" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="50"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4" t="s">
         <v>0</v>
@@ -1926,11 +1927,11 @@
       <c r="F24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="56"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="47"/>
+      <c r="G24" s="59"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="50"/>
       <c r="P24" s="25" t="s">
         <v>39</v>
       </c>
@@ -1942,10 +1943,10 @@
       </c>
     </row>
     <row r="25" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="48">
+      <c r="B25" s="51">
         <v>5</v>
       </c>
-      <c r="C25" s="51" t="s">
+      <c r="C25" s="54" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="11" t="s">
@@ -1957,19 +1958,19 @@
       <c r="F25" s="9">
         <v>1</v>
       </c>
-      <c r="G25" s="54">
+      <c r="G25" s="57">
         <v>2</v>
       </c>
-      <c r="I25" s="66">
+      <c r="I25" s="60">
         <v>60</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="63">
         <v>1</v>
       </c>
-      <c r="K25" s="69">
+      <c r="K25" s="45">
         <v>10</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="48">
         <v>71</v>
       </c>
       <c r="P25" s="28" t="s">
@@ -1981,8 +1982,8 @@
       <c r="R25" s="27"/>
     </row>
     <row r="26" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="49"/>
-      <c r="C26" s="52"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="55"/>
       <c r="D26" s="8" t="s">
         <v>4</v>
       </c>
@@ -1992,11 +1993,11 @@
       <c r="F26" s="6">
         <v>1</v>
       </c>
-      <c r="G26" s="55"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="46"/>
+      <c r="G26" s="58"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="49"/>
       <c r="P26" s="25" t="s">
         <v>33</v>
       </c>
@@ -2006,8 +2007,8 @@
       <c r="R26" s="24"/>
     </row>
     <row r="27" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="50"/>
-      <c r="C27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4" t="s">
         <v>0</v>
@@ -2015,11 +2016,11 @@
       <c r="F27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G27" s="56"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="47"/>
+      <c r="G27" s="59"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="50"/>
       <c r="P27" s="28" t="s">
         <v>5</v>
       </c>
@@ -2031,10 +2032,10 @@
       </c>
     </row>
     <row r="28" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="48">
+      <c r="B28" s="51">
         <v>6</v>
       </c>
-      <c r="C28" s="51" t="s">
+      <c r="C28" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="11" t="s">
@@ -2046,19 +2047,19 @@
       <c r="F28" s="9">
         <v>0.5</v>
       </c>
-      <c r="G28" s="54">
+      <c r="G28" s="57">
         <v>3</v>
       </c>
-      <c r="I28" s="66">
+      <c r="I28" s="60">
         <v>50</v>
       </c>
-      <c r="J28" s="60">
+      <c r="J28" s="63">
         <v>1</v>
       </c>
-      <c r="K28" s="69">
+      <c r="K28" s="45">
         <v>7</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="48">
         <v>58</v>
       </c>
       <c r="P28" s="25" t="s">
@@ -2070,8 +2071,8 @@
       <c r="R28" s="24"/>
     </row>
     <row r="29" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="49"/>
-      <c r="C29" s="52"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="8" t="s">
         <v>7</v>
       </c>
@@ -2081,11 +2082,11 @@
       <c r="F29" s="6">
         <v>2.5</v>
       </c>
-      <c r="G29" s="55"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="46"/>
+      <c r="G29" s="58"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="49"/>
       <c r="P29" s="28" t="s">
         <v>13</v>
       </c>
@@ -2095,8 +2096,8 @@
       <c r="R29" s="27"/>
     </row>
     <row r="30" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="50"/>
-      <c r="C30" s="53"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4" t="s">
         <v>0</v>
@@ -2104,11 +2105,11 @@
       <c r="F30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G30" s="56"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="47"/>
+      <c r="G30" s="59"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="50"/>
       <c r="P30" s="25" t="s">
         <v>4</v>
       </c>
@@ -2118,10 +2119,10 @@
       <c r="R30" s="24"/>
     </row>
     <row r="31" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="48">
+      <c r="B31" s="51">
         <v>7</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="54" t="s">
         <v>44</v>
       </c>
       <c r="D31" s="11" t="s">
@@ -2133,19 +2134,19 @@
       <c r="F31" s="9">
         <v>1</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="57">
         <v>3.5</v>
       </c>
-      <c r="I31" s="66">
+      <c r="I31" s="60">
         <v>45</v>
       </c>
-      <c r="J31" s="60">
+      <c r="J31" s="63">
         <v>4</v>
       </c>
-      <c r="K31" s="69">
+      <c r="K31" s="45">
         <v>3.5</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="48">
         <v>52.5</v>
       </c>
       <c r="P31" s="28" t="s">
@@ -2157,8 +2158,8 @@
       <c r="R31" s="27"/>
     </row>
     <row r="32" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="49"/>
-      <c r="C32" s="52"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="8" t="s">
         <v>36</v>
       </c>
@@ -2168,11 +2169,11 @@
       <c r="F32" s="6">
         <v>2.5</v>
       </c>
-      <c r="G32" s="55"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="46"/>
+      <c r="G32" s="58"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="49"/>
       <c r="P32" s="25" t="s">
         <v>35</v>
       </c>
@@ -2182,8 +2183,8 @@
       <c r="R32" s="24"/>
     </row>
     <row r="33" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4" t="s">
         <v>0</v>
@@ -2191,11 +2192,11 @@
       <c r="F33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G33" s="56"/>
-      <c r="I33" s="68"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="47"/>
+      <c r="G33" s="59"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="50"/>
       <c r="P33" s="28" t="s">
         <v>29</v>
       </c>
@@ -2205,10 +2206,10 @@
       <c r="R33" s="27"/>
     </row>
     <row r="34" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="48">
+      <c r="B34" s="51">
         <v>8</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="54" t="s">
         <v>43</v>
       </c>
       <c r="D34" s="11" t="s">
@@ -2220,19 +2221,19 @@
       <c r="F34" s="9">
         <v>1</v>
       </c>
-      <c r="G34" s="54">
+      <c r="G34" s="57">
         <v>3.5</v>
       </c>
-      <c r="I34" s="66">
+      <c r="I34" s="60">
         <v>40</v>
       </c>
-      <c r="J34" s="60">
+      <c r="J34" s="63">
         <v>4</v>
       </c>
-      <c r="K34" s="69">
-        <v>0</v>
-      </c>
-      <c r="L34" s="45">
+      <c r="K34" s="45">
+        <v>0</v>
+      </c>
+      <c r="L34" s="48">
         <v>44</v>
       </c>
       <c r="P34" s="26" t="s">
@@ -2244,8 +2245,8 @@
       <c r="R34" s="24"/>
     </row>
     <row r="35" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
-      <c r="C35" s="52"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="8" t="s">
         <v>34</v>
       </c>
@@ -2255,15 +2256,15 @@
       <c r="F35" s="6">
         <v>2.5</v>
       </c>
-      <c r="G35" s="55"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="46"/>
+      <c r="G35" s="58"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="49"/>
     </row>
     <row r="36" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="50"/>
-      <c r="C36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4" t="s">
         <v>0</v>
@@ -2271,11 +2272,11 @@
       <c r="F36" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G36" s="56"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="47"/>
+      <c r="G36" s="59"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="50"/>
     </row>
     <row r="37" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:18" s="19" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2283,10 +2284,10 @@
         <v>27</v>
       </c>
       <c r="C38" s="21"/>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="22"/>
+      <c r="E38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="22" t="s">
         <v>42</v>
@@ -2334,10 +2335,10 @@
       </c>
     </row>
     <row r="40" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="48">
+      <c r="B40" s="51">
         <v>1</v>
       </c>
-      <c r="C40" s="51" t="s">
+      <c r="C40" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="13" t="s">
@@ -2349,17 +2350,17 @@
       <c r="F40" s="9">
         <v>0.5</v>
       </c>
-      <c r="G40" s="54">
+      <c r="G40" s="57">
         <v>5.5</v>
       </c>
-      <c r="I40" s="57"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="45"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="48"/>
     </row>
     <row r="41" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="49"/>
-      <c r="C41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="12" t="s">
         <v>40</v>
       </c>
@@ -2369,15 +2370,15 @@
       <c r="F41" s="6">
         <v>5</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="61"/>
-      <c r="K41" s="64"/>
-      <c r="L41" s="46"/>
+      <c r="G41" s="58"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="49"/>
     </row>
     <row r="42" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="50"/>
-      <c r="C42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="14"/>
       <c r="E42" s="4" t="s">
         <v>0</v>
@@ -2385,17 +2386,17 @@
       <c r="F42" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="56"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="65"/>
-      <c r="L42" s="47"/>
+      <c r="G42" s="59"/>
+      <c r="I42" s="68"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="50"/>
     </row>
     <row r="43" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="48">
+      <c r="B43" s="51">
         <v>2</v>
       </c>
-      <c r="C43" s="51" t="s">
+      <c r="C43" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="13" t="s">
@@ -2407,17 +2408,17 @@
       <c r="F43" s="9">
         <v>2.5</v>
       </c>
-      <c r="G43" s="54">
+      <c r="G43" s="57">
         <v>5</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="60"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="45"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="69"/>
+      <c r="L43" s="48"/>
     </row>
     <row r="44" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="49"/>
-      <c r="C44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="12" t="s">
         <v>38</v>
       </c>
@@ -2427,15 +2428,15 @@
       <c r="F44" s="6">
         <v>2.5</v>
       </c>
-      <c r="G44" s="55"/>
-      <c r="I44" s="58"/>
-      <c r="J44" s="61"/>
-      <c r="K44" s="64"/>
-      <c r="L44" s="46"/>
+      <c r="G44" s="58"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="49"/>
     </row>
     <row r="45" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="50"/>
-      <c r="C45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="14"/>
       <c r="E45" s="4" t="s">
         <v>0</v>
@@ -2443,17 +2444,17 @@
       <c r="F45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="56"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="65"/>
-      <c r="L45" s="47"/>
+      <c r="G45" s="59"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="50"/>
     </row>
     <row r="46" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="48">
+      <c r="B46" s="51">
         <v>3</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="C46" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="13" t="s">
@@ -2465,17 +2466,17 @@
       <c r="F46" s="9">
         <v>1</v>
       </c>
-      <c r="G46" s="54">
+      <c r="G46" s="57">
         <v>3.5</v>
       </c>
-      <c r="I46" s="57"/>
-      <c r="J46" s="60"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="45"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="48"/>
     </row>
     <row r="47" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="49"/>
-      <c r="C47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="12" t="s">
         <v>36</v>
       </c>
@@ -2485,15 +2486,15 @@
       <c r="F47" s="6">
         <v>2.5</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="61"/>
-      <c r="K47" s="64"/>
-      <c r="L47" s="46"/>
+      <c r="G47" s="58"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="49"/>
     </row>
     <row r="48" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="50"/>
-      <c r="C48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="14"/>
       <c r="E48" s="4" t="s">
         <v>0</v>
@@ -2501,17 +2502,17 @@
       <c r="F48" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G48" s="56"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="47"/>
+      <c r="G48" s="59"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="71"/>
+      <c r="L48" s="50"/>
     </row>
     <row r="49" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="48">
+      <c r="B49" s="51">
         <v>4</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="13" t="s">
@@ -2523,17 +2524,17 @@
       <c r="F49" s="9">
         <v>1</v>
       </c>
-      <c r="G49" s="54">
+      <c r="G49" s="57">
         <v>3.5</v>
       </c>
-      <c r="I49" s="57"/>
-      <c r="J49" s="60"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="45"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="48"/>
     </row>
     <row r="50" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="49"/>
-      <c r="C50" s="52"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="12" t="s">
         <v>34</v>
       </c>
@@ -2543,15 +2544,15 @@
       <c r="F50" s="6">
         <v>2.5</v>
       </c>
-      <c r="G50" s="55"/>
-      <c r="I50" s="58"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="64"/>
-      <c r="L50" s="46"/>
+      <c r="G50" s="58"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="49"/>
     </row>
     <row r="51" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="50"/>
-      <c r="C51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="5"/>
       <c r="E51" s="4" t="s">
         <v>0</v>
@@ -2559,17 +2560,17 @@
       <c r="F51" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G51" s="56"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="47"/>
+      <c r="G51" s="59"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="50"/>
     </row>
     <row r="52" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="48">
+      <c r="B52" s="51">
         <v>5</v>
       </c>
-      <c r="C52" s="51" t="s">
+      <c r="C52" s="54" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -2581,23 +2582,23 @@
       <c r="F52" s="9">
         <v>0.5</v>
       </c>
-      <c r="G52" s="54">
+      <c r="G52" s="57">
         <v>3</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I52" s="66">
         <v>32.5</v>
       </c>
-      <c r="J52" s="60">
+      <c r="J52" s="63">
         <v>1</v>
       </c>
-      <c r="K52" s="63"/>
-      <c r="L52" s="45">
+      <c r="K52" s="69"/>
+      <c r="L52" s="48">
         <v>33.5</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="49"/>
-      <c r="C53" s="52"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="8" t="s">
         <v>32</v>
       </c>
@@ -2607,15 +2608,15 @@
       <c r="F53" s="6">
         <v>0</v>
       </c>
-      <c r="G53" s="55"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="64"/>
-      <c r="L53" s="46"/>
+      <c r="G53" s="58"/>
+      <c r="I53" s="67"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="49"/>
     </row>
     <row r="54" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="50"/>
-      <c r="C54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="5" t="s">
         <v>31</v>
       </c>
@@ -2625,17 +2626,17 @@
       <c r="F54" s="3">
         <v>2.5</v>
       </c>
-      <c r="G54" s="56"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="65"/>
-      <c r="L54" s="47"/>
+      <c r="G54" s="59"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="50"/>
     </row>
     <row r="55" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="48">
+      <c r="B55" s="51">
         <v>6</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -2647,23 +2648,23 @@
       <c r="F55" s="9">
         <v>0</v>
       </c>
-      <c r="G55" s="54">
+      <c r="G55" s="57">
         <v>1</v>
       </c>
-      <c r="I55" s="57">
+      <c r="I55" s="66">
         <v>26</v>
       </c>
-      <c r="J55" s="60">
-        <v>0</v>
-      </c>
-      <c r="K55" s="63"/>
-      <c r="L55" s="45">
+      <c r="J55" s="63">
+        <v>0</v>
+      </c>
+      <c r="K55" s="69"/>
+      <c r="L55" s="48">
         <v>26</v>
       </c>
     </row>
     <row r="56" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="49"/>
-      <c r="C56" s="52"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="8" t="s">
         <v>28</v>
       </c>
@@ -2673,15 +2674,15 @@
       <c r="F56" s="6">
         <v>1</v>
       </c>
-      <c r="G56" s="55"/>
-      <c r="I56" s="58"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="64"/>
-      <c r="L56" s="46"/>
+      <c r="G56" s="58"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="49"/>
     </row>
     <row r="57" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="50"/>
-      <c r="C57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="56"/>
       <c r="D57" s="5"/>
       <c r="E57" s="4" t="s">
         <v>0</v>
@@ -2689,11 +2690,11 @@
       <c r="F57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G57" s="56"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="65"/>
-      <c r="L57" s="47"/>
+      <c r="G57" s="59"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="50"/>
     </row>
     <row r="58" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="59" spans="2:18" s="19" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2701,10 +2702,10 @@
         <v>27</v>
       </c>
       <c r="C59" s="21"/>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E59" s="21"/>
       <c r="F59" s="21"/>
       <c r="G59" s="22" t="s">
         <v>25</v>
@@ -2752,10 +2753,10 @@
       </c>
     </row>
     <row r="61" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="48">
+      <c r="B61" s="51">
         <v>1</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="54" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="13" t="s">
@@ -2767,17 +2768,17 @@
       <c r="F61" s="9">
         <v>5</v>
       </c>
-      <c r="G61" s="54">
+      <c r="G61" s="57">
         <v>7.5</v>
       </c>
-      <c r="I61" s="57"/>
-      <c r="J61" s="60"/>
-      <c r="K61" s="63"/>
-      <c r="L61" s="45"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="48"/>
     </row>
     <row r="62" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="49"/>
-      <c r="C62" s="52"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="12" t="s">
         <v>13</v>
       </c>
@@ -2787,15 +2788,15 @@
       <c r="F62" s="6">
         <v>2.5</v>
       </c>
-      <c r="G62" s="55"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="64"/>
-      <c r="L62" s="46"/>
+      <c r="G62" s="58"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="70"/>
+      <c r="L62" s="49"/>
     </row>
     <row r="63" spans="2:18" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="50"/>
-      <c r="C63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="56"/>
       <c r="D63" s="14"/>
       <c r="E63" s="4" t="s">
         <v>0</v>
@@ -2803,17 +2804,17 @@
       <c r="F63" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="56"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="65"/>
-      <c r="L63" s="47"/>
+      <c r="G63" s="59"/>
+      <c r="I63" s="68"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="50"/>
     </row>
     <row r="64" spans="2:18" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="48">
+      <c r="B64" s="51">
         <v>2</v>
       </c>
-      <c r="C64" s="51" t="s">
+      <c r="C64" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="13" t="s">
@@ -2825,17 +2826,17 @@
       <c r="F64" s="9">
         <v>1</v>
       </c>
-      <c r="G64" s="54">
+      <c r="G64" s="57">
         <v>8.5</v>
       </c>
-      <c r="I64" s="57"/>
-      <c r="J64" s="60"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="45"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="48"/>
     </row>
     <row r="65" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="49"/>
-      <c r="C65" s="52"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="55"/>
       <c r="D65" s="12" t="s">
         <v>10</v>
       </c>
@@ -2845,15 +2846,15 @@
       <c r="F65" s="6">
         <v>7.5</v>
       </c>
-      <c r="G65" s="55"/>
-      <c r="I65" s="58"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="64"/>
-      <c r="L65" s="46"/>
+      <c r="G65" s="58"/>
+      <c r="I65" s="67"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="70"/>
+      <c r="L65" s="49"/>
     </row>
     <row r="66" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="50"/>
-      <c r="C66" s="53"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="14"/>
       <c r="E66" s="4" t="s">
         <v>0</v>
@@ -2861,17 +2862,17 @@
       <c r="F66" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G66" s="56"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="65"/>
-      <c r="L66" s="47"/>
+      <c r="G66" s="59"/>
+      <c r="I66" s="68"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="71"/>
+      <c r="L66" s="50"/>
     </row>
     <row r="67" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="48">
+      <c r="B67" s="51">
         <v>3</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="54" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="13" t="s">
@@ -2883,17 +2884,17 @@
       <c r="F67" s="9">
         <v>0.5</v>
       </c>
-      <c r="G67" s="54">
+      <c r="G67" s="57">
         <v>3</v>
       </c>
-      <c r="I67" s="57"/>
-      <c r="J67" s="60"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="45"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="69"/>
+      <c r="L67" s="48"/>
     </row>
     <row r="68" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="49"/>
-      <c r="C68" s="52"/>
+      <c r="B68" s="52"/>
+      <c r="C68" s="55"/>
       <c r="D68" s="12" t="s">
         <v>7</v>
       </c>
@@ -2903,15 +2904,15 @@
       <c r="F68" s="6">
         <v>2.5</v>
       </c>
-      <c r="G68" s="55"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="64"/>
-      <c r="L68" s="46"/>
+      <c r="G68" s="58"/>
+      <c r="I68" s="67"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="70"/>
+      <c r="L68" s="49"/>
     </row>
     <row r="69" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="50"/>
-      <c r="C69" s="53"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="56"/>
       <c r="D69" s="14"/>
       <c r="E69" s="4" t="s">
         <v>0</v>
@@ -2919,17 +2920,17 @@
       <c r="F69" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G69" s="56"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="65"/>
-      <c r="L69" s="47"/>
+      <c r="G69" s="59"/>
+      <c r="I69" s="68"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="71"/>
+      <c r="L69" s="50"/>
     </row>
     <row r="70" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="48">
+      <c r="B70" s="51">
         <v>4</v>
       </c>
-      <c r="C70" s="51" t="s">
+      <c r="C70" s="54" t="s">
         <v>6</v>
       </c>
       <c r="D70" s="13" t="s">
@@ -2941,17 +2942,17 @@
       <c r="F70" s="9">
         <v>1</v>
       </c>
-      <c r="G70" s="54">
+      <c r="G70" s="57">
         <v>2</v>
       </c>
-      <c r="I70" s="57"/>
-      <c r="J70" s="60"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="45"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="69"/>
+      <c r="L70" s="48"/>
     </row>
     <row r="71" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="49"/>
-      <c r="C71" s="52"/>
+      <c r="B71" s="52"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="12" t="s">
         <v>4</v>
       </c>
@@ -2961,15 +2962,15 @@
       <c r="F71" s="6">
         <v>1</v>
       </c>
-      <c r="G71" s="55"/>
-      <c r="I71" s="58"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="64"/>
-      <c r="L71" s="46"/>
+      <c r="G71" s="58"/>
+      <c r="I71" s="67"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="70"/>
+      <c r="L71" s="49"/>
     </row>
     <row r="72" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="50"/>
-      <c r="C72" s="53"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="56"/>
       <c r="D72" s="5"/>
       <c r="E72" s="4" t="s">
         <v>0</v>
@@ -2977,17 +2978,17 @@
       <c r="F72" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G72" s="56"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="65"/>
-      <c r="L72" s="47"/>
+      <c r="G72" s="59"/>
+      <c r="I72" s="68"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="71"/>
+      <c r="L72" s="50"/>
     </row>
     <row r="73" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="48">
+      <c r="B73" s="51">
         <v>5</v>
       </c>
-      <c r="C73" s="51" t="s">
+      <c r="C73" s="54" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="11" t="s">
@@ -2999,23 +3000,23 @@
       <c r="F73" s="9">
         <v>0</v>
       </c>
-      <c r="G73" s="54">
+      <c r="G73" s="57">
         <v>1</v>
       </c>
-      <c r="I73" s="57">
+      <c r="I73" s="66">
         <v>32.5</v>
       </c>
-      <c r="J73" s="60">
-        <v>0</v>
-      </c>
-      <c r="K73" s="63"/>
-      <c r="L73" s="45">
+      <c r="J73" s="63">
+        <v>0</v>
+      </c>
+      <c r="K73" s="69"/>
+      <c r="L73" s="48">
         <v>32.5</v>
       </c>
     </row>
     <row r="74" spans="2:12" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="49"/>
-      <c r="C74" s="52"/>
+      <c r="B74" s="52"/>
+      <c r="C74" s="55"/>
       <c r="D74" s="8" t="s">
         <v>1</v>
       </c>
@@ -3025,15 +3026,15 @@
       <c r="F74" s="6">
         <v>1</v>
       </c>
-      <c r="G74" s="55"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="64"/>
-      <c r="L74" s="46"/>
+      <c r="G74" s="58"/>
+      <c r="I74" s="67"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="49"/>
     </row>
     <row r="75" spans="2:12" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="50"/>
-      <c r="C75" s="53"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="5"/>
       <c r="E75" s="4" t="s">
         <v>0</v>
@@ -3041,32 +3042,105 @@
       <c r="F75" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="56"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="65"/>
-      <c r="L75" s="47"/>
+      <c r="G75" s="59"/>
+      <c r="I75" s="68"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="71"/>
+      <c r="L75" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="J61:J63"/>
+    <mergeCell ref="K61:K63"/>
+    <mergeCell ref="L73:L75"/>
+    <mergeCell ref="B73:B75"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="G73:G75"/>
+    <mergeCell ref="I73:I75"/>
+    <mergeCell ref="J73:J75"/>
+    <mergeCell ref="K73:K75"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="L67:L69"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="G70:G72"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="G64:G66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="J64:J66"/>
+    <mergeCell ref="K64:K66"/>
+    <mergeCell ref="L64:L66"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="J67:J69"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="K49:K51"/>
+    <mergeCell ref="L49:L51"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="L55:L57"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="G49:G51"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="G31:G33"/>
+    <mergeCell ref="I31:I33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="K31:K33"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="K34:K36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
     <mergeCell ref="K28:K30"/>
     <mergeCell ref="L28:L30"/>
     <mergeCell ref="B25:B27"/>
@@ -3091,109 +3165,36 @@
     <mergeCell ref="G22:G24"/>
     <mergeCell ref="I22:I24"/>
     <mergeCell ref="J22:J24"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="G31:G33"/>
-    <mergeCell ref="I31:I33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="K31:K33"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="G40:G42"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="K34:K36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="L55:L57"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="G49:G51"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="L40:L42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="K49:K51"/>
-    <mergeCell ref="L49:L51"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="L67:L69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="G70:G72"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="L61:L63"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="J64:J66"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="L64:L66"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="J67:J69"/>
-    <mergeCell ref="K67:K69"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="K61:K63"/>
-    <mergeCell ref="L73:L75"/>
-    <mergeCell ref="B73:B75"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="G73:G75"/>
-    <mergeCell ref="I73:I75"/>
-    <mergeCell ref="J73:J75"/>
-    <mergeCell ref="K73:K75"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="D6">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choose Category" sqref="D6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Categories</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11 B38 B59">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B11 B38 B59" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Divisions</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D11 D38 D59">
+    <dataValidation type="list" allowBlank="1" sqref="D11:E11 D38:E38 D59:E59" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Rounds</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G38 G59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11 G38 G59" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>Pools</formula1>
     </dataValidation>
   </dataValidations>
